--- a/revisi/Catatan Penguji 2.xlsx
+++ b/revisi/Catatan Penguji 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\tesis\revisi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B83494-9512-4149-95BD-692759C1BA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0504124B-AB3D-4953-AB66-3CBDAEC5F0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>Tindah Lanjut</t>
-  </si>
-  <si>
-    <t>Selain uang, tanggal, Perkembangan Society 5.0, Revolusi Industri 4.0, dan rumus, sudah</t>
-  </si>
-  <si>
-    <t>Industri</t>
   </si>
   <si>
     <r>
@@ -151,6 +145,47 @@
       <t>Hierarchy of Needs</t>
     </r>
   </si>
+  <si>
+    <t>Industri, kosmetik</t>
+  </si>
+  <si>
+    <t>Saya ingin mengubah unit analisisnya menjadi "industri" dengan spesifik "kosmetik"</t>
+  </si>
+  <si>
+    <t>Jika saya menggunakan populasi Tangerang Raya, penyaringan calon responden bisa menggunakan whatsapp dan grup facebook</t>
+  </si>
+  <si>
+    <t>Jika saya menggunakan populasi satu PT, penyaringan calon responden bisa menggunakan whatsapp dan data karyawan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grand Theory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mencangkup variabel X dan Y saja, variabel X1-X3 tidak ada</t>
+    </r>
+  </si>
+  <si>
+    <t>Perlu ditandatangani lagi, dan judulnya saya ubah mengukuti saran Penguji 1</t>
+  </si>
+  <si>
+    <t>Sudah diubah selain uang, tanggal, Perkembangan Society 5.0, Revolusi Industri 4.0, nama variabel, dan rumus</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +232,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,13 +281,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,15 +630,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="148.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,7 +649,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -624,6 +682,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -672,11 +733,14 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,14 +755,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,7 +774,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -759,7 +820,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -782,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,6 +875,36 @@
       <c r="C24" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/revisi/Catatan Penguji 2.xlsx
+++ b/revisi/Catatan Penguji 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\tesis\revisi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0504124B-AB3D-4953-AB66-3CBDAEC5F0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9E3392-3408-47DB-BFC6-6A2BBD30DC33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -149,13 +149,16 @@
     <t>Industri, kosmetik</t>
   </si>
   <si>
-    <t>Saya ingin mengubah unit analisisnya menjadi "industri" dengan spesifik "kosmetik"</t>
-  </si>
-  <si>
-    <t>Jika saya menggunakan populasi Tangerang Raya, penyaringan calon responden bisa menggunakan whatsapp dan grup facebook</t>
-  </si>
-  <si>
-    <t>Jika saya menggunakan populasi satu PT, penyaringan calon responden bisa menggunakan whatsapp dan data karyawan</t>
+    <t>Sudah diubah selain uang, tanggal, Perkembangan Society 5.0, Revolusi Industri 4.0, nama variabel, dan rumus</t>
+  </si>
+  <si>
+    <t>Sudah ditambahkan di BAB 3</t>
+  </si>
+  <si>
+    <t>Sudah ditambahkan di BAB 1 dan BAB 3</t>
+  </si>
+  <si>
+    <t>Sudah ditambahkan data daya saing digital dan perusahaan kosmetik di Banten</t>
   </si>
   <si>
     <r>
@@ -177,14 +180,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> mencangkup variabel X dan Y saja, variabel X1-X3 tidak ada</t>
+      <t xml:space="preserve"> mencangkup variabel Z dan Y saja, variabel X1-X3 tidak ada</t>
     </r>
   </si>
   <si>
-    <t>Perlu ditandatangani lagi, dan judulnya saya ubah mengukuti saran Penguji 1</t>
-  </si>
-  <si>
-    <t>Sudah diubah selain uang, tanggal, Perkembangan Society 5.0, Revolusi Industri 4.0, nama variabel, dan rumus</t>
+    <t>Perlu ditandatangani lagi, dan judulnya saya ubah mengukuti saran Penguji 1, diubah nanti saat pengerjaan BAB 4 dan 5</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,12 +226,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,10 +282,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,176 +628,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="148.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -807,104 +821,91 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" t="s">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>35</v>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
